--- a/tools/labels.xlsx
+++ b/tools/labels.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="592">
   <si>
     <t xml:space="preserve">images</t>
   </si>
@@ -1781,6 +1781,21 @@
   </si>
   <si>
     <t xml:space="preserve">jurkat_I19.mat_Set744_TrId103.png</t>
+  </si>
+  <si>
+    <t>Mahdi</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>unsure</t>
+  </si>
+  <si>
+    <t>pos</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1838,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="1173">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1831,6 +1846,1178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1861,7 +3048,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1178">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1886,6 +3073,1178 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,14 +4271,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="7"/>
+    <col min="1" max="1" width="43.36" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="6.6015625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="6.54" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="7.28" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="4.46" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="7" max="7" width="4.18" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="8" max="9" width="7" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,7 +4288,9 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="6" t="s">
+        <v>587</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1941,7 +4302,9 @@
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1954,7 +4317,9 @@
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="10" t="s">
+        <v>588</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1967,7 +4332,9 @@
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="12" t="s">
+        <v>589</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1980,7 +4347,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="14" t="s">
+        <v>588</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1993,7 +4362,9 @@
         <v>6</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="16" t="s">
+        <v>590</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2006,7 +4377,9 @@
         <v>7</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="18" t="s">
+        <v>588</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2019,7 +4392,9 @@
         <v>8</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="20" t="s">
+        <v>589</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -2028,7 +4403,9 @@
         <v>9</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="22" t="s">
+        <v>591</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -2037,7 +4414,9 @@
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="24" t="s">
+        <v>589</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -2046,7 +4425,9 @@
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="26" t="s">
+        <v>589</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -2055,7 +4436,9 @@
         <v>12</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="28" t="s">
+        <v>589</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
@@ -2064,7 +4447,9 @@
         <v>13</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="30" t="s">
+        <v>589</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
@@ -2073,7 +4458,9 @@
         <v>14</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="32" t="s">
+        <v>588</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
@@ -2082,7 +4469,9 @@
         <v>15</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="34" t="s">
+        <v>589</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
@@ -2091,7 +4480,9 @@
         <v>16</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="36" t="s">
+        <v>589</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
@@ -2100,7 +4491,9 @@
         <v>17</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="38" t="s">
+        <v>588</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
@@ -2109,7 +4502,9 @@
         <v>18</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="40" t="s">
+        <v>589</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
@@ -2118,7 +4513,9 @@
         <v>19</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="42" t="s">
+        <v>591</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
@@ -2127,7 +4524,9 @@
         <v>20</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="44" t="s">
+        <v>591</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
@@ -2136,7 +4535,9 @@
         <v>21</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="46" t="s">
+        <v>589</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
@@ -2145,7 +4546,9 @@
         <v>22</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="48" t="s">
+        <v>588</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
@@ -2154,7 +4557,9 @@
         <v>23</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="50" t="s">
+        <v>590</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
@@ -2163,7 +4568,9 @@
         <v>24</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="52" t="s">
+        <v>589</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
@@ -2172,7 +4579,9 @@
         <v>25</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="54" t="s">
+        <v>589</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
@@ -2181,7 +4590,9 @@
         <v>26</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="56" t="s">
+        <v>588</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
@@ -2190,7 +4601,9 @@
         <v>27</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="58" t="s">
+        <v>588</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
@@ -2199,7 +4612,9 @@
         <v>28</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="60" t="s">
+        <v>588</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
@@ -2208,7 +4623,9 @@
         <v>29</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="62" t="s">
+        <v>589</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
@@ -2217,7 +4634,9 @@
         <v>30</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="64" t="s">
+        <v>588</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
@@ -2226,7 +4645,9 @@
         <v>31</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="66" t="s">
+        <v>589</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
@@ -2235,7 +4656,9 @@
         <v>32</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="68" t="s">
+        <v>591</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
@@ -2244,7 +4667,9 @@
         <v>33</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="70" t="s">
+        <v>591</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
@@ -2253,7 +4678,9 @@
         <v>34</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="72" t="s">
+        <v>588</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
@@ -2262,7 +4689,9 @@
         <v>35</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="74" t="s">
+        <v>591</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
@@ -2271,7 +4700,9 @@
         <v>36</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="76" t="s">
+        <v>589</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
@@ -2280,7 +4711,9 @@
         <v>37</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="78" t="s">
+        <v>590</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
@@ -2289,7 +4722,9 @@
         <v>38</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="80" t="s">
+        <v>589</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
@@ -2298,7 +4733,9 @@
         <v>39</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="82" t="s">
+        <v>588</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
@@ -2307,7 +4744,9 @@
         <v>40</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="84" t="s">
+        <v>590</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -2316,7 +4755,9 @@
         <v>41</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="86" t="s">
+        <v>589</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
@@ -2325,7 +4766,9 @@
         <v>42</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="88" t="s">
+        <v>588</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
@@ -2334,7 +4777,9 @@
         <v>43</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="90" t="s">
+        <v>589</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -2343,7 +4788,9 @@
         <v>44</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="92" t="s">
+        <v>591</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -2352,7 +4799,9 @@
         <v>45</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="94" t="s">
+        <v>591</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
@@ -2361,7 +4810,9 @@
         <v>46</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="96" t="s">
+        <v>588</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
@@ -2370,7 +4821,9 @@
         <v>47</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="98" t="s">
+        <v>588</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
@@ -2379,7 +4832,9 @@
         <v>48</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="100" t="s">
+        <v>590</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
@@ -2388,7 +4843,9 @@
         <v>49</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="102" t="s">
+        <v>589</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
@@ -2397,7 +4854,9 @@
         <v>50</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="104" t="s">
+        <v>590</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
@@ -2406,7 +4865,9 @@
         <v>51</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="106" t="s">
+        <v>588</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
@@ -2415,7 +4876,9 @@
         <v>52</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="108" t="s">
+        <v>590</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
@@ -2424,7 +4887,9 @@
         <v>53</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="110" t="s">
+        <v>589</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
@@ -2433,7 +4898,9 @@
         <v>54</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="112" t="s">
+        <v>589</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
@@ -2442,7 +4909,9 @@
         <v>55</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="114" t="s">
+        <v>589</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
@@ -2451,7 +4920,9 @@
         <v>56</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="116" t="s">
+        <v>591</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
@@ -2460,7 +4931,9 @@
         <v>57</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="118" t="s">
+        <v>591</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
@@ -2469,7 +4942,9 @@
         <v>58</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="120" t="s">
+        <v>589</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
@@ -2478,7 +4953,9 @@
         <v>59</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="122" t="s">
+        <v>590</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
@@ -2487,7 +4964,9 @@
         <v>60</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="124" t="s">
+        <v>589</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
@@ -2496,7 +4975,9 @@
         <v>61</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="126" t="s">
+        <v>589</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
@@ -2505,7 +4986,9 @@
         <v>62</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="128" t="s">
+        <v>588</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
@@ -2514,7 +4997,9 @@
         <v>63</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="130" t="s">
+        <v>591</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
@@ -2523,7 +5008,9 @@
         <v>64</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="132" t="s">
+        <v>590</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
@@ -2532,7 +5019,9 @@
         <v>65</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="134" t="s">
+        <v>589</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
@@ -2541,7 +5030,9 @@
         <v>66</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="136" t="s">
+        <v>588</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
@@ -2550,7 +5041,9 @@
         <v>67</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="138" t="s">
+        <v>589</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
@@ -2559,7 +5052,9 @@
         <v>68</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="140" t="s">
+        <v>589</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
@@ -2568,7 +5063,9 @@
         <v>69</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="142" t="s">
+        <v>590</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
@@ -2577,7 +5074,9 @@
         <v>70</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="144" t="s">
+        <v>589</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
@@ -2586,7 +5085,9 @@
         <v>71</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="146" t="s">
+        <v>591</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
@@ -2595,7 +5096,9 @@
         <v>72</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="148" t="s">
+        <v>589</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
@@ -2604,7 +5107,9 @@
         <v>73</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="150" t="s">
+        <v>588</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
@@ -2613,7 +5118,9 @@
         <v>74</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="152" t="s">
+        <v>590</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
@@ -2622,7 +5129,9 @@
         <v>75</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="2"/>
+      <c r="C75" s="154" t="s">
+        <v>589</v>
+      </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
@@ -2631,7 +5140,9 @@
         <v>76</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="156" t="s">
+        <v>589</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
@@ -2640,7 +5151,9 @@
         <v>77</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="158" t="s">
+        <v>589</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
@@ -2649,7 +5162,9 @@
         <v>78</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="160" t="s">
+        <v>589</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
@@ -2658,7 +5173,9 @@
         <v>79</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="162" t="s">
+        <v>589</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
@@ -2667,7 +5184,9 @@
         <v>80</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="164" t="s">
+        <v>588</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
@@ -2676,7 +5195,9 @@
         <v>81</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="166" t="s">
+        <v>588</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
@@ -2685,7 +5206,9 @@
         <v>82</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="168" t="s">
+        <v>591</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
@@ -2694,7 +5217,9 @@
         <v>83</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="170" t="s">
+        <v>590</v>
+      </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
@@ -2703,7 +5228,9 @@
         <v>84</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="172" t="s">
+        <v>588</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
@@ -2712,7 +5239,9 @@
         <v>85</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="174" t="s">
+        <v>589</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
@@ -2721,7 +5250,9 @@
         <v>86</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="2"/>
+      <c r="C86" s="176" t="s">
+        <v>589</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
@@ -2730,7 +5261,9 @@
         <v>87</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="178" t="s">
+        <v>588</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
@@ -2739,7 +5272,9 @@
         <v>88</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="180" t="s">
+        <v>591</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
@@ -2748,7 +5283,9 @@
         <v>89</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="2"/>
+      <c r="C89" s="182" t="s">
+        <v>588</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
@@ -2757,7 +5294,9 @@
         <v>90</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="184" t="s">
+        <v>591</v>
+      </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
@@ -2766,7 +5305,9 @@
         <v>91</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="186" t="s">
+        <v>589</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
@@ -2775,7 +5316,9 @@
         <v>92</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="188" t="s">
+        <v>590</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
@@ -2784,7 +5327,9 @@
         <v>93</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="190" t="s">
+        <v>588</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
@@ -2793,7 +5338,9 @@
         <v>94</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="192" t="s">
+        <v>588</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
@@ -2802,7 +5349,9 @@
         <v>95</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="194" t="s">
+        <v>591</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
@@ -2811,7 +5360,9 @@
         <v>96</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="196" t="s">
+        <v>588</v>
+      </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
@@ -2820,7 +5371,9 @@
         <v>97</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="198" t="s">
+        <v>588</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
@@ -2829,7 +5382,9 @@
         <v>98</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="200" t="s">
+        <v>588</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
@@ -2838,7 +5393,9 @@
         <v>99</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="202" t="s">
+        <v>590</v>
+      </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
@@ -2847,7 +5404,9 @@
         <v>100</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="204" t="s">
+        <v>589</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
@@ -2856,7 +5415,9 @@
         <v>101</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="2"/>
+      <c r="C101" s="206" t="s">
+        <v>590</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
@@ -2865,7 +5426,9 @@
         <v>102</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="208" t="s">
+        <v>588</v>
+      </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
@@ -2874,7 +5437,9 @@
         <v>103</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="210" t="s">
+        <v>589</v>
+      </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
@@ -2883,7 +5448,9 @@
         <v>104</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="2"/>
+      <c r="C104" s="212" t="s">
+        <v>588</v>
+      </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
@@ -2892,7 +5459,9 @@
         <v>105</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="2"/>
+      <c r="C105" s="214" t="s">
+        <v>591</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
@@ -2901,7 +5470,9 @@
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="2"/>
+      <c r="C106" s="216" t="s">
+        <v>591</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
@@ -2910,7 +5481,9 @@
         <v>107</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="218" t="s">
+        <v>589</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
@@ -2919,7 +5492,9 @@
         <v>108</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="220" t="s">
+        <v>590</v>
+      </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
@@ -2928,7 +5503,9 @@
         <v>109</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="2"/>
+      <c r="C109" s="222" t="s">
+        <v>589</v>
+      </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
@@ -2937,7 +5514,9 @@
         <v>110</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="2"/>
+      <c r="C110" s="224" t="s">
+        <v>588</v>
+      </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
@@ -2946,7 +5525,9 @@
         <v>111</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="2"/>
+      <c r="C111" s="226" t="s">
+        <v>589</v>
+      </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
@@ -2955,7 +5536,9 @@
         <v>112</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="2"/>
+      <c r="C112" s="228" t="s">
+        <v>588</v>
+      </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
@@ -2964,7 +5547,9 @@
         <v>113</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="230" t="s">
+        <v>589</v>
+      </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
@@ -2973,7 +5558,9 @@
         <v>114</v>
       </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="2"/>
+      <c r="C114" s="232" t="s">
+        <v>589</v>
+      </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
@@ -2982,7 +5569,9 @@
         <v>115</v>
       </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="234" t="s">
+        <v>589</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
@@ -2991,7 +5580,9 @@
         <v>116</v>
       </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="236" t="s">
+        <v>589</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
@@ -3000,7 +5591,9 @@
         <v>117</v>
       </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="238" t="s">
+        <v>588</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
@@ -3009,7 +5602,9 @@
         <v>118</v>
       </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="240" t="s">
+        <v>588</v>
+      </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
@@ -3018,7 +5613,9 @@
         <v>119</v>
       </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="2"/>
+      <c r="C119" s="242" t="s">
+        <v>590</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
@@ -3027,7 +5624,9 @@
         <v>120</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="2"/>
+      <c r="C120" s="244" t="s">
+        <v>589</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
@@ -3036,7 +5635,9 @@
         <v>121</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="2"/>
+      <c r="C121" s="246" t="s">
+        <v>588</v>
+      </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
@@ -3045,7 +5646,9 @@
         <v>122</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="2"/>
+      <c r="C122" s="248" t="s">
+        <v>591</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
@@ -3054,7 +5657,9 @@
         <v>123</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="2"/>
+      <c r="C123" s="250" t="s">
+        <v>588</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
@@ -3063,7 +5668,9 @@
         <v>124</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="2"/>
+      <c r="C124" s="252" t="s">
+        <v>588</v>
+      </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
@@ -3072,7 +5679,9 @@
         <v>125</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="2"/>
+      <c r="C125" s="254" t="s">
+        <v>588</v>
+      </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
@@ -3081,7 +5690,9 @@
         <v>126</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="2"/>
+      <c r="C126" s="256" t="s">
+        <v>591</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
@@ -3090,7 +5701,9 @@
         <v>127</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="2"/>
+      <c r="C127" s="258" t="s">
+        <v>588</v>
+      </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
@@ -3099,7 +5712,9 @@
         <v>128</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="2"/>
+      <c r="C128" s="260" t="s">
+        <v>591</v>
+      </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
@@ -3108,7 +5723,9 @@
         <v>129</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="2"/>
+      <c r="C129" s="262" t="s">
+        <v>588</v>
+      </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
@@ -3117,7 +5734,9 @@
         <v>130</v>
       </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="2"/>
+      <c r="C130" s="264" t="s">
+        <v>590</v>
+      </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
@@ -3126,7 +5745,9 @@
         <v>131</v>
       </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="2"/>
+      <c r="C131" s="266" t="s">
+        <v>589</v>
+      </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
@@ -3135,7 +5756,9 @@
         <v>132</v>
       </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="2"/>
+      <c r="C132" s="268" t="s">
+        <v>588</v>
+      </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
@@ -3144,7 +5767,9 @@
         <v>133</v>
       </c>
       <c r="B133" s="1"/>
-      <c r="C133" s="2"/>
+      <c r="C133" s="270" t="s">
+        <v>588</v>
+      </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
@@ -3153,7 +5778,9 @@
         <v>134</v>
       </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="2"/>
+      <c r="C134" s="272" t="s">
+        <v>589</v>
+      </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
@@ -3162,7 +5789,9 @@
         <v>135</v>
       </c>
       <c r="B135" s="1"/>
-      <c r="C135" s="2"/>
+      <c r="C135" s="274" t="s">
+        <v>589</v>
+      </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
@@ -3171,7 +5800,9 @@
         <v>136</v>
       </c>
       <c r="B136" s="1"/>
-      <c r="C136" s="2"/>
+      <c r="C136" s="276" t="s">
+        <v>588</v>
+      </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
@@ -3180,7 +5811,9 @@
         <v>137</v>
       </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="2"/>
+      <c r="C137" s="278" t="s">
+        <v>589</v>
+      </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
@@ -3189,7 +5822,9 @@
         <v>138</v>
       </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="280" t="s">
+        <v>591</v>
+      </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
@@ -3198,7 +5833,9 @@
         <v>139</v>
       </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="2"/>
+      <c r="C139" s="282" t="s">
+        <v>591</v>
+      </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
@@ -3207,7 +5844,9 @@
         <v>140</v>
       </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="284" t="s">
+        <v>588</v>
+      </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
@@ -3216,7 +5855,9 @@
         <v>141</v>
       </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="2"/>
+      <c r="C141" s="286" t="s">
+        <v>589</v>
+      </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
@@ -3225,7 +5866,9 @@
         <v>142</v>
       </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="2"/>
+      <c r="C142" s="288" t="s">
+        <v>588</v>
+      </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
@@ -3234,7 +5877,9 @@
         <v>143</v>
       </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="2"/>
+      <c r="C143" s="290" t="s">
+        <v>588</v>
+      </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
@@ -3243,7 +5888,9 @@
         <v>144</v>
       </c>
       <c r="B144" s="1"/>
-      <c r="C144" s="2"/>
+      <c r="C144" s="292" t="s">
+        <v>591</v>
+      </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
@@ -3252,7 +5899,9 @@
         <v>145</v>
       </c>
       <c r="B145" s="1"/>
-      <c r="C145" s="2"/>
+      <c r="C145" s="294" t="s">
+        <v>588</v>
+      </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
@@ -3261,7 +5910,9 @@
         <v>146</v>
       </c>
       <c r="B146" s="1"/>
-      <c r="C146" s="2"/>
+      <c r="C146" s="296" t="s">
+        <v>589</v>
+      </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
@@ -3270,7 +5921,9 @@
         <v>147</v>
       </c>
       <c r="B147" s="1"/>
-      <c r="C147" s="2"/>
+      <c r="C147" s="298" t="s">
+        <v>590</v>
+      </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
@@ -3279,7 +5932,9 @@
         <v>148</v>
       </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="2"/>
+      <c r="C148" s="300" t="s">
+        <v>589</v>
+      </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
@@ -3288,7 +5943,9 @@
         <v>149</v>
       </c>
       <c r="B149" s="1"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="302" t="s">
+        <v>589</v>
+      </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
@@ -3297,7 +5954,9 @@
         <v>150</v>
       </c>
       <c r="B150" s="1"/>
-      <c r="C150" s="2"/>
+      <c r="C150" s="304" t="s">
+        <v>590</v>
+      </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
@@ -3306,7 +5965,9 @@
         <v>151</v>
       </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="2"/>
+      <c r="C151" s="306" t="s">
+        <v>588</v>
+      </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
@@ -3315,7 +5976,9 @@
         <v>152</v>
       </c>
       <c r="B152" s="1"/>
-      <c r="C152" s="2"/>
+      <c r="C152" s="308" t="s">
+        <v>590</v>
+      </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
@@ -3324,7 +5987,9 @@
         <v>153</v>
       </c>
       <c r="B153" s="1"/>
-      <c r="C153" s="2"/>
+      <c r="C153" s="310" t="s">
+        <v>588</v>
+      </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
@@ -3333,7 +5998,9 @@
         <v>154</v>
       </c>
       <c r="B154" s="1"/>
-      <c r="C154" s="2"/>
+      <c r="C154" s="312" t="s">
+        <v>589</v>
+      </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
@@ -3342,7 +6009,9 @@
         <v>155</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="2"/>
+      <c r="C155" s="314" t="s">
+        <v>588</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
@@ -3351,7 +6020,9 @@
         <v>156</v>
       </c>
       <c r="B156" s="1"/>
-      <c r="C156" s="2"/>
+      <c r="C156" s="316" t="s">
+        <v>588</v>
+      </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
@@ -3360,7 +6031,9 @@
         <v>157</v>
       </c>
       <c r="B157" s="1"/>
-      <c r="C157" s="2"/>
+      <c r="C157" s="318" t="s">
+        <v>589</v>
+      </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
@@ -3369,7 +6042,9 @@
         <v>158</v>
       </c>
       <c r="B158" s="1"/>
-      <c r="C158" s="2"/>
+      <c r="C158" s="320" t="s">
+        <v>588</v>
+      </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
@@ -3378,7 +6053,9 @@
         <v>159</v>
       </c>
       <c r="B159" s="1"/>
-      <c r="C159" s="2"/>
+      <c r="C159" s="322" t="s">
+        <v>591</v>
+      </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
@@ -3387,7 +6064,9 @@
         <v>160</v>
       </c>
       <c r="B160" s="1"/>
-      <c r="C160" s="2"/>
+      <c r="C160" s="324" t="s">
+        <v>590</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
@@ -3396,7 +6075,9 @@
         <v>161</v>
       </c>
       <c r="B161" s="1"/>
-      <c r="C161" s="2"/>
+      <c r="C161" s="326" t="s">
+        <v>589</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
@@ -3405,7 +6086,9 @@
         <v>162</v>
       </c>
       <c r="B162" s="1"/>
-      <c r="C162" s="2"/>
+      <c r="C162" s="328" t="s">
+        <v>589</v>
+      </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
@@ -3414,7 +6097,9 @@
         <v>163</v>
       </c>
       <c r="B163" s="1"/>
-      <c r="C163" s="2"/>
+      <c r="C163" s="330" t="s">
+        <v>591</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
@@ -3423,7 +6108,9 @@
         <v>164</v>
       </c>
       <c r="B164" s="1"/>
-      <c r="C164" s="2"/>
+      <c r="C164" s="332" t="s">
+        <v>590</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
@@ -3432,7 +6119,9 @@
         <v>165</v>
       </c>
       <c r="B165" s="1"/>
-      <c r="C165" s="2"/>
+      <c r="C165" s="334" t="s">
+        <v>589</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
@@ -3441,7 +6130,9 @@
         <v>166</v>
       </c>
       <c r="B166" s="1"/>
-      <c r="C166" s="2"/>
+      <c r="C166" s="336" t="s">
+        <v>588</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
@@ -3450,7 +6141,9 @@
         <v>167</v>
       </c>
       <c r="B167" s="1"/>
-      <c r="C167" s="2"/>
+      <c r="C167" s="338" t="s">
+        <v>588</v>
+      </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
@@ -3459,7 +6152,9 @@
         <v>168</v>
       </c>
       <c r="B168" s="1"/>
-      <c r="C168" s="2"/>
+      <c r="C168" s="340" t="s">
+        <v>588</v>
+      </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
@@ -3468,7 +6163,9 @@
         <v>169</v>
       </c>
       <c r="B169" s="1"/>
-      <c r="C169" s="2"/>
+      <c r="C169" s="342" t="s">
+        <v>591</v>
+      </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
@@ -3477,7 +6174,9 @@
         <v>170</v>
       </c>
       <c r="B170" s="1"/>
-      <c r="C170" s="2"/>
+      <c r="C170" s="344" t="s">
+        <v>588</v>
+      </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
@@ -3486,7 +6185,9 @@
         <v>171</v>
       </c>
       <c r="B171" s="1"/>
-      <c r="C171" s="2"/>
+      <c r="C171" s="346" t="s">
+        <v>589</v>
+      </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
@@ -3495,7 +6196,9 @@
         <v>172</v>
       </c>
       <c r="B172" s="1"/>
-      <c r="C172" s="2"/>
+      <c r="C172" s="348" t="s">
+        <v>591</v>
+      </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
@@ -3504,7 +6207,9 @@
         <v>173</v>
       </c>
       <c r="B173" s="1"/>
-      <c r="C173" s="2"/>
+      <c r="C173" s="350" t="s">
+        <v>588</v>
+      </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
@@ -3513,7 +6218,9 @@
         <v>174</v>
       </c>
       <c r="B174" s="1"/>
-      <c r="C174" s="2"/>
+      <c r="C174" s="352" t="s">
+        <v>590</v>
+      </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
@@ -3522,7 +6229,9 @@
         <v>175</v>
       </c>
       <c r="B175" s="1"/>
-      <c r="C175" s="2"/>
+      <c r="C175" s="354" t="s">
+        <v>588</v>
+      </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
@@ -3531,7 +6240,9 @@
         <v>176</v>
       </c>
       <c r="B176" s="1"/>
-      <c r="C176" s="2"/>
+      <c r="C176" s="356" t="s">
+        <v>589</v>
+      </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
@@ -3540,7 +6251,9 @@
         <v>177</v>
       </c>
       <c r="B177" s="1"/>
-      <c r="C177" s="2"/>
+      <c r="C177" s="358" t="s">
+        <v>589</v>
+      </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
@@ -3549,7 +6262,9 @@
         <v>178</v>
       </c>
       <c r="B178" s="1"/>
-      <c r="C178" s="2"/>
+      <c r="C178" s="360" t="s">
+        <v>588</v>
+      </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
@@ -3558,7 +6273,9 @@
         <v>179</v>
       </c>
       <c r="B179" s="1"/>
-      <c r="C179" s="2"/>
+      <c r="C179" s="362" t="s">
+        <v>588</v>
+      </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
@@ -3567,7 +6284,9 @@
         <v>180</v>
       </c>
       <c r="B180" s="1"/>
-      <c r="C180" s="2"/>
+      <c r="C180" s="364" t="s">
+        <v>588</v>
+      </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
@@ -3576,7 +6295,9 @@
         <v>181</v>
       </c>
       <c r="B181" s="1"/>
-      <c r="C181" s="2"/>
+      <c r="C181" s="366" t="s">
+        <v>591</v>
+      </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
@@ -3585,7 +6306,9 @@
         <v>182</v>
       </c>
       <c r="B182" s="1"/>
-      <c r="C182" s="2"/>
+      <c r="C182" s="368" t="s">
+        <v>590</v>
+      </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
@@ -3594,7 +6317,9 @@
         <v>183</v>
       </c>
       <c r="B183" s="1"/>
-      <c r="C183" s="2"/>
+      <c r="C183" s="370" t="s">
+        <v>589</v>
+      </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
@@ -3603,7 +6328,9 @@
         <v>184</v>
       </c>
       <c r="B184" s="1"/>
-      <c r="C184" s="2"/>
+      <c r="C184" s="372" t="s">
+        <v>591</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
@@ -3612,7 +6339,9 @@
         <v>185</v>
       </c>
       <c r="B185" s="1"/>
-      <c r="C185" s="2"/>
+      <c r="C185" s="374" t="s">
+        <v>589</v>
+      </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
@@ -3621,7 +6350,9 @@
         <v>186</v>
       </c>
       <c r="B186" s="1"/>
-      <c r="C186" s="2"/>
+      <c r="C186" s="376" t="s">
+        <v>588</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
@@ -3630,7 +6361,9 @@
         <v>187</v>
       </c>
       <c r="B187" s="1"/>
-      <c r="C187" s="2"/>
+      <c r="C187" s="378" t="s">
+        <v>590</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
@@ -3639,7 +6372,9 @@
         <v>188</v>
       </c>
       <c r="B188" s="1"/>
-      <c r="C188" s="2"/>
+      <c r="C188" s="380" t="s">
+        <v>589</v>
+      </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
@@ -3648,7 +6383,9 @@
         <v>189</v>
       </c>
       <c r="B189" s="1"/>
-      <c r="C189" s="2"/>
+      <c r="C189" s="382" t="s">
+        <v>588</v>
+      </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
@@ -3657,7 +6394,9 @@
         <v>190</v>
       </c>
       <c r="B190" s="1"/>
-      <c r="C190" s="2"/>
+      <c r="C190" s="384" t="s">
+        <v>591</v>
+      </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
@@ -3666,7 +6405,9 @@
         <v>191</v>
       </c>
       <c r="B191" s="1"/>
-      <c r="C191" s="2"/>
+      <c r="C191" s="386" t="s">
+        <v>590</v>
+      </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
@@ -3675,7 +6416,9 @@
         <v>192</v>
       </c>
       <c r="B192" s="1"/>
-      <c r="C192" s="2"/>
+      <c r="C192" s="388" t="s">
+        <v>589</v>
+      </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
@@ -3684,7 +6427,9 @@
         <v>193</v>
       </c>
       <c r="B193" s="1"/>
-      <c r="C193" s="2"/>
+      <c r="C193" s="390" t="s">
+        <v>591</v>
+      </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
@@ -3693,7 +6438,9 @@
         <v>194</v>
       </c>
       <c r="B194" s="1"/>
-      <c r="C194" s="2"/>
+      <c r="C194" s="392" t="s">
+        <v>589</v>
+      </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
@@ -3702,7 +6449,9 @@
         <v>195</v>
       </c>
       <c r="B195" s="1"/>
-      <c r="C195" s="2"/>
+      <c r="C195" s="394" t="s">
+        <v>589</v>
+      </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
@@ -3711,7 +6460,9 @@
         <v>196</v>
       </c>
       <c r="B196" s="1"/>
-      <c r="C196" s="2"/>
+      <c r="C196" s="396" t="s">
+        <v>589</v>
+      </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
@@ -3720,7 +6471,9 @@
         <v>197</v>
       </c>
       <c r="B197" s="1"/>
-      <c r="C197" s="2"/>
+      <c r="C197" s="398" t="s">
+        <v>588</v>
+      </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
@@ -3729,7 +6482,9 @@
         <v>198</v>
       </c>
       <c r="B198" s="1"/>
-      <c r="C198" s="2"/>
+      <c r="C198" s="400" t="s">
+        <v>589</v>
+      </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
@@ -3738,7 +6493,9 @@
         <v>199</v>
       </c>
       <c r="B199" s="1"/>
-      <c r="C199" s="2"/>
+      <c r="C199" s="402" t="s">
+        <v>590</v>
+      </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
@@ -3747,7 +6504,9 @@
         <v>200</v>
       </c>
       <c r="B200" s="1"/>
-      <c r="C200" s="2"/>
+      <c r="C200" s="404" t="s">
+        <v>588</v>
+      </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
@@ -3756,7 +6515,9 @@
         <v>201</v>
       </c>
       <c r="B201" s="1"/>
-      <c r="C201" s="2"/>
+      <c r="C201" s="406" t="s">
+        <v>589</v>
+      </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
@@ -3765,7 +6526,9 @@
         <v>202</v>
       </c>
       <c r="B202" s="1"/>
-      <c r="C202" s="2"/>
+      <c r="C202" s="408" t="s">
+        <v>589</v>
+      </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
@@ -3774,7 +6537,9 @@
         <v>203</v>
       </c>
       <c r="B203" s="1"/>
-      <c r="C203" s="2"/>
+      <c r="C203" s="410" t="s">
+        <v>588</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
@@ -3783,7 +6548,9 @@
         <v>204</v>
       </c>
       <c r="B204" s="1"/>
-      <c r="C204" s="2"/>
+      <c r="C204" s="412" t="s">
+        <v>588</v>
+      </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
@@ -3792,7 +6559,9 @@
         <v>205</v>
       </c>
       <c r="B205" s="1"/>
-      <c r="C205" s="2"/>
+      <c r="C205" s="414" t="s">
+        <v>588</v>
+      </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
@@ -3801,7 +6570,9 @@
         <v>206</v>
       </c>
       <c r="B206" s="1"/>
-      <c r="C206" s="2"/>
+      <c r="C206" s="416" t="s">
+        <v>588</v>
+      </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
@@ -3810,7 +6581,9 @@
         <v>207</v>
       </c>
       <c r="B207" s="1"/>
-      <c r="C207" s="2"/>
+      <c r="C207" s="418" t="s">
+        <v>590</v>
+      </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
@@ -3819,7 +6592,9 @@
         <v>208</v>
       </c>
       <c r="B208" s="1"/>
-      <c r="C208" s="2"/>
+      <c r="C208" s="420" t="s">
+        <v>589</v>
+      </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
@@ -3828,7 +6603,9 @@
         <v>209</v>
       </c>
       <c r="B209" s="1"/>
-      <c r="C209" s="2"/>
+      <c r="C209" s="422" t="s">
+        <v>588</v>
+      </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
@@ -3837,7 +6614,9 @@
         <v>210</v>
       </c>
       <c r="B210" s="1"/>
-      <c r="C210" s="2"/>
+      <c r="C210" s="424" t="s">
+        <v>589</v>
+      </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
@@ -3846,7 +6625,9 @@
         <v>211</v>
       </c>
       <c r="B211" s="1"/>
-      <c r="C211" s="2"/>
+      <c r="C211" s="426" t="s">
+        <v>589</v>
+      </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
@@ -3855,7 +6636,9 @@
         <v>212</v>
       </c>
       <c r="B212" s="1"/>
-      <c r="C212" s="2"/>
+      <c r="C212" s="428" t="s">
+        <v>590</v>
+      </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
@@ -3864,7 +6647,9 @@
         <v>213</v>
       </c>
       <c r="B213" s="1"/>
-      <c r="C213" s="2"/>
+      <c r="C213" s="430" t="s">
+        <v>591</v>
+      </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
@@ -3873,7 +6658,9 @@
         <v>214</v>
       </c>
       <c r="B214" s="1"/>
-      <c r="C214" s="2"/>
+      <c r="C214" s="432" t="s">
+        <v>588</v>
+      </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
@@ -3882,7 +6669,9 @@
         <v>215</v>
       </c>
       <c r="B215" s="1"/>
-      <c r="C215" s="2"/>
+      <c r="C215" s="434" t="s">
+        <v>589</v>
+      </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
@@ -3891,7 +6680,9 @@
         <v>216</v>
       </c>
       <c r="B216" s="1"/>
-      <c r="C216" s="2"/>
+      <c r="C216" s="436" t="s">
+        <v>590</v>
+      </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
@@ -3900,7 +6691,9 @@
         <v>217</v>
       </c>
       <c r="B217" s="1"/>
-      <c r="C217" s="2"/>
+      <c r="C217" s="438" t="s">
+        <v>589</v>
+      </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
@@ -3909,7 +6702,9 @@
         <v>218</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="2"/>
+      <c r="C218" s="440" t="s">
+        <v>589</v>
+      </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
@@ -3918,7 +6713,9 @@
         <v>219</v>
       </c>
       <c r="B219" s="1"/>
-      <c r="C219" s="2"/>
+      <c r="C219" s="442" t="s">
+        <v>588</v>
+      </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
@@ -3927,7 +6724,9 @@
         <v>220</v>
       </c>
       <c r="B220" s="1"/>
-      <c r="C220" s="2"/>
+      <c r="C220" s="444" t="s">
+        <v>588</v>
+      </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
@@ -3936,7 +6735,9 @@
         <v>221</v>
       </c>
       <c r="B221" s="1"/>
-      <c r="C221" s="2"/>
+      <c r="C221" s="446" t="s">
+        <v>591</v>
+      </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
@@ -3945,7 +6746,9 @@
         <v>222</v>
       </c>
       <c r="B222" s="1"/>
-      <c r="C222" s="2"/>
+      <c r="C222" s="448" t="s">
+        <v>591</v>
+      </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
@@ -3954,7 +6757,9 @@
         <v>223</v>
       </c>
       <c r="B223" s="1"/>
-      <c r="C223" s="2"/>
+      <c r="C223" s="450" t="s">
+        <v>591</v>
+      </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
@@ -3963,7 +6768,9 @@
         <v>224</v>
       </c>
       <c r="B224" s="1"/>
-      <c r="C224" s="2"/>
+      <c r="C224" s="452" t="s">
+        <v>588</v>
+      </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
@@ -3972,7 +6779,9 @@
         <v>225</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="2"/>
+      <c r="C225" s="454" t="s">
+        <v>589</v>
+      </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
@@ -3981,7 +6790,9 @@
         <v>226</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="2"/>
+      <c r="C226" s="456" t="s">
+        <v>588</v>
+      </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
@@ -3990,7 +6801,9 @@
         <v>227</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="2"/>
+      <c r="C227" s="458" t="s">
+        <v>591</v>
+      </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
@@ -3999,7 +6812,9 @@
         <v>228</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="2"/>
+      <c r="C228" s="460" t="s">
+        <v>588</v>
+      </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
@@ -4008,7 +6823,9 @@
         <v>229</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="2"/>
+      <c r="C229" s="462" t="s">
+        <v>589</v>
+      </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
@@ -4017,7 +6834,9 @@
         <v>230</v>
       </c>
       <c r="B230" s="1"/>
-      <c r="C230" s="2"/>
+      <c r="C230" s="464" t="s">
+        <v>590</v>
+      </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
@@ -4026,7 +6845,9 @@
         <v>231</v>
       </c>
       <c r="B231" s="1"/>
-      <c r="C231" s="2"/>
+      <c r="C231" s="466" t="s">
+        <v>590</v>
+      </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
@@ -4035,7 +6856,9 @@
         <v>232</v>
       </c>
       <c r="B232" s="1"/>
-      <c r="C232" s="2"/>
+      <c r="C232" s="468" t="s">
+        <v>588</v>
+      </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
@@ -4044,7 +6867,9 @@
         <v>233</v>
       </c>
       <c r="B233" s="1"/>
-      <c r="C233" s="2"/>
+      <c r="C233" s="470" t="s">
+        <v>588</v>
+      </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
@@ -4053,7 +6878,9 @@
         <v>234</v>
       </c>
       <c r="B234" s="1"/>
-      <c r="C234" s="2"/>
+      <c r="C234" s="472" t="s">
+        <v>588</v>
+      </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
@@ -4062,7 +6889,9 @@
         <v>235</v>
       </c>
       <c r="B235" s="1"/>
-      <c r="C235" s="2"/>
+      <c r="C235" s="474" t="s">
+        <v>589</v>
+      </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
@@ -4071,7 +6900,9 @@
         <v>236</v>
       </c>
       <c r="B236" s="1"/>
-      <c r="C236" s="2"/>
+      <c r="C236" s="476" t="s">
+        <v>589</v>
+      </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
@@ -4080,7 +6911,9 @@
         <v>237</v>
       </c>
       <c r="B237" s="1"/>
-      <c r="C237" s="2"/>
+      <c r="C237" s="478" t="s">
+        <v>591</v>
+      </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
@@ -4089,7 +6922,9 @@
         <v>238</v>
       </c>
       <c r="B238" s="1"/>
-      <c r="C238" s="2"/>
+      <c r="C238" s="480" t="s">
+        <v>588</v>
+      </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
@@ -4098,7 +6933,9 @@
         <v>239</v>
       </c>
       <c r="B239" s="1"/>
-      <c r="C239" s="2"/>
+      <c r="C239" s="482" t="s">
+        <v>588</v>
+      </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
@@ -4107,7 +6944,9 @@
         <v>240</v>
       </c>
       <c r="B240" s="1"/>
-      <c r="C240" s="2"/>
+      <c r="C240" s="484" t="s">
+        <v>589</v>
+      </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
@@ -4116,7 +6955,9 @@
         <v>241</v>
       </c>
       <c r="B241" s="1"/>
-      <c r="C241" s="2"/>
+      <c r="C241" s="486" t="s">
+        <v>590</v>
+      </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
@@ -4125,7 +6966,9 @@
         <v>242</v>
       </c>
       <c r="B242" s="1"/>
-      <c r="C242" s="2"/>
+      <c r="C242" s="488" t="s">
+        <v>589</v>
+      </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
@@ -4134,7 +6977,9 @@
         <v>243</v>
       </c>
       <c r="B243" s="1"/>
-      <c r="C243" s="2"/>
+      <c r="C243" s="490" t="s">
+        <v>589</v>
+      </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
@@ -4143,7 +6988,9 @@
         <v>244</v>
       </c>
       <c r="B244" s="1"/>
-      <c r="C244" s="2"/>
+      <c r="C244" s="492" t="s">
+        <v>588</v>
+      </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
@@ -4152,7 +6999,9 @@
         <v>245</v>
       </c>
       <c r="B245" s="1"/>
-      <c r="C245" s="2"/>
+      <c r="C245" s="494" t="s">
+        <v>590</v>
+      </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
@@ -4161,7 +7010,9 @@
         <v>246</v>
       </c>
       <c r="B246" s="1"/>
-      <c r="C246" s="2"/>
+      <c r="C246" s="496" t="s">
+        <v>589</v>
+      </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
@@ -4170,7 +7021,9 @@
         <v>247</v>
       </c>
       <c r="B247" s="1"/>
-      <c r="C247" s="2"/>
+      <c r="C247" s="498" t="s">
+        <v>590</v>
+      </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
@@ -4179,7 +7032,9 @@
         <v>248</v>
       </c>
       <c r="B248" s="1"/>
-      <c r="C248" s="2"/>
+      <c r="C248" s="500" t="s">
+        <v>591</v>
+      </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
@@ -4188,7 +7043,9 @@
         <v>249</v>
       </c>
       <c r="B249" s="1"/>
-      <c r="C249" s="2"/>
+      <c r="C249" s="502" t="s">
+        <v>589</v>
+      </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
@@ -4197,7 +7054,9 @@
         <v>250</v>
       </c>
       <c r="B250" s="1"/>
-      <c r="C250" s="2"/>
+      <c r="C250" s="504" t="s">
+        <v>588</v>
+      </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
@@ -4206,7 +7065,9 @@
         <v>251</v>
       </c>
       <c r="B251" s="1"/>
-      <c r="C251" s="2"/>
+      <c r="C251" s="506" t="s">
+        <v>589</v>
+      </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
@@ -4215,7 +7076,9 @@
         <v>252</v>
       </c>
       <c r="B252" s="1"/>
-      <c r="C252" s="2"/>
+      <c r="C252" s="508" t="s">
+        <v>588</v>
+      </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
@@ -4224,7 +7087,9 @@
         <v>253</v>
       </c>
       <c r="B253" s="1"/>
-      <c r="C253" s="2"/>
+      <c r="C253" s="510" t="s">
+        <v>589</v>
+      </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
@@ -4233,7 +7098,9 @@
         <v>254</v>
       </c>
       <c r="B254" s="1"/>
-      <c r="C254" s="2"/>
+      <c r="C254" s="512" t="s">
+        <v>591</v>
+      </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
@@ -4242,7 +7109,9 @@
         <v>255</v>
       </c>
       <c r="B255" s="1"/>
-      <c r="C255" s="2"/>
+      <c r="C255" s="514" t="s">
+        <v>588</v>
+      </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
@@ -4251,7 +7120,9 @@
         <v>256</v>
       </c>
       <c r="B256" s="1"/>
-      <c r="C256" s="2"/>
+      <c r="C256" s="516" t="s">
+        <v>590</v>
+      </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
@@ -4260,7 +7131,9 @@
         <v>257</v>
       </c>
       <c r="B257" s="1"/>
-      <c r="C257" s="2"/>
+      <c r="C257" s="518" t="s">
+        <v>589</v>
+      </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
@@ -4269,7 +7142,9 @@
         <v>258</v>
       </c>
       <c r="B258" s="1"/>
-      <c r="C258" s="2"/>
+      <c r="C258" s="520" t="s">
+        <v>589</v>
+      </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
@@ -4278,7 +7153,9 @@
         <v>259</v>
       </c>
       <c r="B259" s="1"/>
-      <c r="C259" s="2"/>
+      <c r="C259" s="522" t="s">
+        <v>590</v>
+      </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
@@ -4287,7 +7164,9 @@
         <v>260</v>
       </c>
       <c r="B260" s="1"/>
-      <c r="C260" s="2"/>
+      <c r="C260" s="524" t="s">
+        <v>589</v>
+      </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
@@ -4296,7 +7175,9 @@
         <v>261</v>
       </c>
       <c r="B261" s="1"/>
-      <c r="C261" s="2"/>
+      <c r="C261" s="526" t="s">
+        <v>589</v>
+      </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
@@ -4305,7 +7186,9 @@
         <v>262</v>
       </c>
       <c r="B262" s="1"/>
-      <c r="C262" s="2"/>
+      <c r="C262" s="528" t="s">
+        <v>589</v>
+      </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
@@ -4314,7 +7197,9 @@
         <v>263</v>
       </c>
       <c r="B263" s="1"/>
-      <c r="C263" s="2"/>
+      <c r="C263" s="530" t="s">
+        <v>589</v>
+      </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
@@ -4323,7 +7208,9 @@
         <v>264</v>
       </c>
       <c r="B264" s="1"/>
-      <c r="C264" s="2"/>
+      <c r="C264" s="532" t="s">
+        <v>589</v>
+      </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
@@ -4332,7 +7219,9 @@
         <v>265</v>
       </c>
       <c r="B265" s="1"/>
-      <c r="C265" s="2"/>
+      <c r="C265" s="534" t="s">
+        <v>590</v>
+      </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
@@ -4341,7 +7230,9 @@
         <v>266</v>
       </c>
       <c r="B266" s="1"/>
-      <c r="C266" s="2"/>
+      <c r="C266" s="536" t="s">
+        <v>591</v>
+      </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
@@ -4350,7 +7241,9 @@
         <v>267</v>
       </c>
       <c r="B267" s="1"/>
-      <c r="C267" s="2"/>
+      <c r="C267" s="538" t="s">
+        <v>591</v>
+      </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
@@ -4359,7 +7252,9 @@
         <v>268</v>
       </c>
       <c r="B268" s="1"/>
-      <c r="C268" s="2"/>
+      <c r="C268" s="540" t="s">
+        <v>590</v>
+      </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
@@ -4368,7 +7263,9 @@
         <v>269</v>
       </c>
       <c r="B269" s="1"/>
-      <c r="C269" s="2"/>
+      <c r="C269" s="542" t="s">
+        <v>588</v>
+      </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
@@ -4377,7 +7274,9 @@
         <v>270</v>
       </c>
       <c r="B270" s="1"/>
-      <c r="C270" s="2"/>
+      <c r="C270" s="544" t="s">
+        <v>589</v>
+      </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
@@ -4386,7 +7285,9 @@
         <v>271</v>
       </c>
       <c r="B271" s="1"/>
-      <c r="C271" s="2"/>
+      <c r="C271" s="546" t="s">
+        <v>590</v>
+      </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
@@ -4395,7 +7296,9 @@
         <v>272</v>
       </c>
       <c r="B272" s="1"/>
-      <c r="C272" s="2"/>
+      <c r="C272" s="548" t="s">
+        <v>591</v>
+      </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
@@ -4404,7 +7307,9 @@
         <v>273</v>
       </c>
       <c r="B273" s="1"/>
-      <c r="C273" s="2"/>
+      <c r="C273" s="550" t="s">
+        <v>588</v>
+      </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
@@ -4413,7 +7318,9 @@
         <v>274</v>
       </c>
       <c r="B274" s="1"/>
-      <c r="C274" s="2"/>
+      <c r="C274" s="552" t="s">
+        <v>589</v>
+      </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
@@ -4422,7 +7329,9 @@
         <v>275</v>
       </c>
       <c r="B275" s="1"/>
-      <c r="C275" s="2"/>
+      <c r="C275" s="554" t="s">
+        <v>589</v>
+      </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
@@ -4431,7 +7340,9 @@
         <v>276</v>
       </c>
       <c r="B276" s="1"/>
-      <c r="C276" s="2"/>
+      <c r="C276" s="556" t="s">
+        <v>591</v>
+      </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
@@ -4440,7 +7351,9 @@
         <v>277</v>
       </c>
       <c r="B277" s="1"/>
-      <c r="C277" s="2"/>
+      <c r="C277" s="558" t="s">
+        <v>588</v>
+      </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
@@ -4449,7 +7362,9 @@
         <v>278</v>
       </c>
       <c r="B278" s="1"/>
-      <c r="C278" s="2"/>
+      <c r="C278" s="560" t="s">
+        <v>588</v>
+      </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
@@ -4458,7 +7373,9 @@
         <v>279</v>
       </c>
       <c r="B279" s="1"/>
-      <c r="C279" s="2"/>
+      <c r="C279" s="562" t="s">
+        <v>589</v>
+      </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
@@ -4467,7 +7384,9 @@
         <v>280</v>
       </c>
       <c r="B280" s="1"/>
-      <c r="C280" s="2"/>
+      <c r="C280" s="564" t="s">
+        <v>589</v>
+      </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
@@ -4476,7 +7395,9 @@
         <v>281</v>
       </c>
       <c r="B281" s="1"/>
-      <c r="C281" s="2"/>
+      <c r="C281" s="566" t="s">
+        <v>589</v>
+      </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
@@ -4485,7 +7406,9 @@
         <v>282</v>
       </c>
       <c r="B282" s="1"/>
-      <c r="C282" s="2"/>
+      <c r="C282" s="568" t="s">
+        <v>591</v>
+      </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
@@ -4494,7 +7417,9 @@
         <v>283</v>
       </c>
       <c r="B283" s="1"/>
-      <c r="C283" s="2"/>
+      <c r="C283" s="570" t="s">
+        <v>590</v>
+      </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
@@ -4503,7 +7428,9 @@
         <v>284</v>
       </c>
       <c r="B284" s="1"/>
-      <c r="C284" s="2"/>
+      <c r="C284" s="572" t="s">
+        <v>588</v>
+      </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
@@ -4512,7 +7439,9 @@
         <v>285</v>
       </c>
       <c r="B285" s="1"/>
-      <c r="C285" s="2"/>
+      <c r="C285" s="574" t="s">
+        <v>588</v>
+      </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
@@ -4521,7 +7450,9 @@
         <v>286</v>
       </c>
       <c r="B286" s="1"/>
-      <c r="C286" s="2"/>
+      <c r="C286" s="576" t="s">
+        <v>589</v>
+      </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
@@ -4530,7 +7461,9 @@
         <v>287</v>
       </c>
       <c r="B287" s="1"/>
-      <c r="C287" s="2"/>
+      <c r="C287" s="578" t="s">
+        <v>589</v>
+      </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
@@ -4539,7 +7472,9 @@
         <v>288</v>
       </c>
       <c r="B288" s="1"/>
-      <c r="C288" s="2"/>
+      <c r="C288" s="580" t="s">
+        <v>589</v>
+      </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
@@ -4548,7 +7483,9 @@
         <v>289</v>
       </c>
       <c r="B289" s="1"/>
-      <c r="C289" s="2"/>
+      <c r="C289" s="582" t="s">
+        <v>588</v>
+      </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
@@ -4557,7 +7494,9 @@
         <v>290</v>
       </c>
       <c r="B290" s="1"/>
-      <c r="C290" s="2"/>
+      <c r="C290" s="584" t="s">
+        <v>589</v>
+      </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
@@ -4566,7 +7505,9 @@
         <v>291</v>
       </c>
       <c r="B291" s="1"/>
-      <c r="C291" s="2"/>
+      <c r="C291" s="586" t="s">
+        <v>590</v>
+      </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
@@ -4575,7 +7516,9 @@
         <v>292</v>
       </c>
       <c r="B292" s="1"/>
-      <c r="C292" s="2"/>
+      <c r="C292" s="588" t="s">
+        <v>588</v>
+      </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
@@ -4584,7 +7527,9 @@
         <v>293</v>
       </c>
       <c r="B293" s="1"/>
-      <c r="C293" s="2"/>
+      <c r="C293" s="590" t="s">
+        <v>589</v>
+      </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
@@ -4593,7 +7538,9 @@
         <v>294</v>
       </c>
       <c r="B294" s="1"/>
-      <c r="C294" s="2"/>
+      <c r="C294" s="592" t="s">
+        <v>588</v>
+      </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
@@ -4602,7 +7549,9 @@
         <v>295</v>
       </c>
       <c r="B295" s="1"/>
-      <c r="C295" s="2"/>
+      <c r="C295" s="594" t="s">
+        <v>589</v>
+      </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
@@ -4611,7 +7560,9 @@
         <v>296</v>
       </c>
       <c r="B296" s="1"/>
-      <c r="C296" s="2"/>
+      <c r="C296" s="596" t="s">
+        <v>588</v>
+      </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
@@ -4620,7 +7571,9 @@
         <v>297</v>
       </c>
       <c r="B297" s="1"/>
-      <c r="C297" s="2"/>
+      <c r="C297" s="598" t="s">
+        <v>588</v>
+      </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
@@ -4629,7 +7582,9 @@
         <v>298</v>
       </c>
       <c r="B298" s="1"/>
-      <c r="C298" s="2"/>
+      <c r="C298" s="600" t="s">
+        <v>589</v>
+      </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
@@ -4638,7 +7593,9 @@
         <v>299</v>
       </c>
       <c r="B299" s="1"/>
-      <c r="C299" s="2"/>
+      <c r="C299" s="602" t="s">
+        <v>591</v>
+      </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
@@ -4647,7 +7604,9 @@
         <v>300</v>
       </c>
       <c r="B300" s="1"/>
-      <c r="C300" s="2"/>
+      <c r="C300" s="604" t="s">
+        <v>588</v>
+      </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
@@ -4656,7 +7615,9 @@
         <v>301</v>
       </c>
       <c r="B301" s="1"/>
-      <c r="C301" s="2"/>
+      <c r="C301" s="606" t="s">
+        <v>591</v>
+      </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
@@ -4665,7 +7626,9 @@
         <v>302</v>
       </c>
       <c r="B302" s="1"/>
-      <c r="C302" s="2"/>
+      <c r="C302" s="608" t="s">
+        <v>588</v>
+      </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
@@ -4674,7 +7637,9 @@
         <v>303</v>
       </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="2"/>
+      <c r="C303" s="610" t="s">
+        <v>589</v>
+      </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
@@ -4683,7 +7648,9 @@
         <v>304</v>
       </c>
       <c r="B304" s="1"/>
-      <c r="C304" s="2"/>
+      <c r="C304" s="612" t="s">
+        <v>588</v>
+      </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
@@ -4692,7 +7659,9 @@
         <v>305</v>
       </c>
       <c r="B305" s="1"/>
-      <c r="C305" s="2"/>
+      <c r="C305" s="614" t="s">
+        <v>591</v>
+      </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
@@ -4701,7 +7670,9 @@
         <v>306</v>
       </c>
       <c r="B306" s="1"/>
-      <c r="C306" s="2"/>
+      <c r="C306" s="616" t="s">
+        <v>588</v>
+      </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
@@ -4710,7 +7681,9 @@
         <v>307</v>
       </c>
       <c r="B307" s="1"/>
-      <c r="C307" s="2"/>
+      <c r="C307" s="618" t="s">
+        <v>588</v>
+      </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
@@ -4719,7 +7692,9 @@
         <v>308</v>
       </c>
       <c r="B308" s="1"/>
-      <c r="C308" s="2"/>
+      <c r="C308" s="620" t="s">
+        <v>590</v>
+      </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
@@ -4728,7 +7703,9 @@
         <v>309</v>
       </c>
       <c r="B309" s="1"/>
-      <c r="C309" s="2"/>
+      <c r="C309" s="622" t="s">
+        <v>588</v>
+      </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
@@ -4737,7 +7714,9 @@
         <v>310</v>
       </c>
       <c r="B310" s="1"/>
-      <c r="C310" s="2"/>
+      <c r="C310" s="624" t="s">
+        <v>589</v>
+      </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
@@ -4746,7 +7725,9 @@
         <v>311</v>
       </c>
       <c r="B311" s="1"/>
-      <c r="C311" s="2"/>
+      <c r="C311" s="626" t="s">
+        <v>591</v>
+      </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
@@ -4755,7 +7736,9 @@
         <v>312</v>
       </c>
       <c r="B312" s="1"/>
-      <c r="C312" s="2"/>
+      <c r="C312" s="628" t="s">
+        <v>591</v>
+      </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
@@ -4764,7 +7747,9 @@
         <v>313</v>
       </c>
       <c r="B313" s="1"/>
-      <c r="C313" s="2"/>
+      <c r="C313" s="630" t="s">
+        <v>588</v>
+      </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
@@ -4773,7 +7758,9 @@
         <v>314</v>
       </c>
       <c r="B314" s="1"/>
-      <c r="C314" s="2"/>
+      <c r="C314" s="632" t="s">
+        <v>589</v>
+      </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
@@ -4782,7 +7769,9 @@
         <v>315</v>
       </c>
       <c r="B315" s="1"/>
-      <c r="C315" s="2"/>
+      <c r="C315" s="634" t="s">
+        <v>588</v>
+      </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
@@ -4791,7 +7780,9 @@
         <v>316</v>
       </c>
       <c r="B316" s="1"/>
-      <c r="C316" s="2"/>
+      <c r="C316" s="636" t="s">
+        <v>588</v>
+      </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
@@ -4800,7 +7791,9 @@
         <v>317</v>
       </c>
       <c r="B317" s="1"/>
-      <c r="C317" s="2"/>
+      <c r="C317" s="638" t="s">
+        <v>588</v>
+      </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
@@ -4809,7 +7802,9 @@
         <v>318</v>
       </c>
       <c r="B318" s="1"/>
-      <c r="C318" s="2"/>
+      <c r="C318" s="640" t="s">
+        <v>588</v>
+      </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
@@ -4818,7 +7813,9 @@
         <v>319</v>
       </c>
       <c r="B319" s="1"/>
-      <c r="C319" s="2"/>
+      <c r="C319" s="642" t="s">
+        <v>590</v>
+      </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
@@ -4827,7 +7824,9 @@
         <v>320</v>
       </c>
       <c r="B320" s="1"/>
-      <c r="C320" s="2"/>
+      <c r="C320" s="644" t="s">
+        <v>590</v>
+      </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
@@ -4836,7 +7835,9 @@
         <v>321</v>
       </c>
       <c r="B321" s="1"/>
-      <c r="C321" s="2"/>
+      <c r="C321" s="646" t="s">
+        <v>589</v>
+      </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
@@ -4845,7 +7846,9 @@
         <v>322</v>
       </c>
       <c r="B322" s="1"/>
-      <c r="C322" s="2"/>
+      <c r="C322" s="648" t="s">
+        <v>589</v>
+      </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
@@ -4854,7 +7857,9 @@
         <v>323</v>
       </c>
       <c r="B323" s="1"/>
-      <c r="C323" s="2"/>
+      <c r="C323" s="650" t="s">
+        <v>589</v>
+      </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
@@ -4863,7 +7868,9 @@
         <v>324</v>
       </c>
       <c r="B324" s="1"/>
-      <c r="C324" s="2"/>
+      <c r="C324" s="652" t="s">
+        <v>589</v>
+      </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
@@ -4872,7 +7879,9 @@
         <v>325</v>
       </c>
       <c r="B325" s="1"/>
-      <c r="C325" s="2"/>
+      <c r="C325" s="654" t="s">
+        <v>589</v>
+      </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
@@ -4881,7 +7890,9 @@
         <v>326</v>
       </c>
       <c r="B326" s="1"/>
-      <c r="C326" s="2"/>
+      <c r="C326" s="656" t="s">
+        <v>588</v>
+      </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
@@ -4890,7 +7901,9 @@
         <v>327</v>
       </c>
       <c r="B327" s="1"/>
-      <c r="C327" s="2"/>
+      <c r="C327" s="658" t="s">
+        <v>590</v>
+      </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
@@ -4899,7 +7912,9 @@
         <v>328</v>
       </c>
       <c r="B328" s="1"/>
-      <c r="C328" s="2"/>
+      <c r="C328" s="660" t="s">
+        <v>589</v>
+      </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
@@ -4908,7 +7923,9 @@
         <v>329</v>
       </c>
       <c r="B329" s="1"/>
-      <c r="C329" s="2"/>
+      <c r="C329" s="662" t="s">
+        <v>588</v>
+      </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
@@ -4917,7 +7934,9 @@
         <v>330</v>
       </c>
       <c r="B330" s="1"/>
-      <c r="C330" s="2"/>
+      <c r="C330" s="664" t="s">
+        <v>588</v>
+      </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
@@ -4926,7 +7945,9 @@
         <v>331</v>
       </c>
       <c r="B331" s="1"/>
-      <c r="C331" s="2"/>
+      <c r="C331" s="666" t="s">
+        <v>588</v>
+      </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
@@ -4935,7 +7956,9 @@
         <v>332</v>
       </c>
       <c r="B332" s="1"/>
-      <c r="C332" s="2"/>
+      <c r="C332" s="668" t="s">
+        <v>588</v>
+      </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
@@ -4944,7 +7967,9 @@
         <v>333</v>
       </c>
       <c r="B333" s="1"/>
-      <c r="C333" s="2"/>
+      <c r="C333" s="670" t="s">
+        <v>590</v>
+      </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
@@ -4953,7 +7978,9 @@
         <v>334</v>
       </c>
       <c r="B334" s="1"/>
-      <c r="C334" s="2"/>
+      <c r="C334" s="672" t="s">
+        <v>590</v>
+      </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
@@ -4962,7 +7989,9 @@
         <v>335</v>
       </c>
       <c r="B335" s="1"/>
-      <c r="C335" s="2"/>
+      <c r="C335" s="674" t="s">
+        <v>588</v>
+      </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
@@ -4971,7 +8000,9 @@
         <v>336</v>
       </c>
       <c r="B336" s="1"/>
-      <c r="C336" s="2"/>
+      <c r="C336" s="676" t="s">
+        <v>589</v>
+      </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
@@ -4980,7 +8011,9 @@
         <v>337</v>
       </c>
       <c r="B337" s="1"/>
-      <c r="C337" s="2"/>
+      <c r="C337" s="678" t="s">
+        <v>590</v>
+      </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
@@ -4989,7 +8022,9 @@
         <v>338</v>
       </c>
       <c r="B338" s="1"/>
-      <c r="C338" s="2"/>
+      <c r="C338" s="680" t="s">
+        <v>589</v>
+      </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
@@ -4998,7 +8033,9 @@
         <v>339</v>
       </c>
       <c r="B339" s="1"/>
-      <c r="C339" s="2"/>
+      <c r="C339" s="682" t="s">
+        <v>589</v>
+      </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
@@ -5007,7 +8044,9 @@
         <v>340</v>
       </c>
       <c r="B340" s="1"/>
-      <c r="C340" s="2"/>
+      <c r="C340" s="684" t="s">
+        <v>588</v>
+      </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
@@ -5016,7 +8055,9 @@
         <v>341</v>
       </c>
       <c r="B341" s="1"/>
-      <c r="C341" s="2"/>
+      <c r="C341" s="686" t="s">
+        <v>591</v>
+      </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
@@ -5025,7 +8066,9 @@
         <v>342</v>
       </c>
       <c r="B342" s="1"/>
-      <c r="C342" s="2"/>
+      <c r="C342" s="688" t="s">
+        <v>589</v>
+      </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
@@ -5034,7 +8077,9 @@
         <v>343</v>
       </c>
       <c r="B343" s="1"/>
-      <c r="C343" s="2"/>
+      <c r="C343" s="690" t="s">
+        <v>589</v>
+      </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
@@ -5043,7 +8088,9 @@
         <v>344</v>
       </c>
       <c r="B344" s="1"/>
-      <c r="C344" s="2"/>
+      <c r="C344" s="692" t="s">
+        <v>589</v>
+      </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
@@ -5052,7 +8099,9 @@
         <v>345</v>
       </c>
       <c r="B345" s="1"/>
-      <c r="C345" s="2"/>
+      <c r="C345" s="694" t="s">
+        <v>590</v>
+      </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
@@ -5061,7 +8110,9 @@
         <v>346</v>
       </c>
       <c r="B346" s="1"/>
-      <c r="C346" s="2"/>
+      <c r="C346" s="696" t="s">
+        <v>589</v>
+      </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
@@ -5070,7 +8121,9 @@
         <v>347</v>
       </c>
       <c r="B347" s="1"/>
-      <c r="C347" s="2"/>
+      <c r="C347" s="698" t="s">
+        <v>589</v>
+      </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
@@ -5079,7 +8132,9 @@
         <v>348</v>
       </c>
       <c r="B348" s="1"/>
-      <c r="C348" s="2"/>
+      <c r="C348" s="700" t="s">
+        <v>590</v>
+      </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
@@ -5088,7 +8143,9 @@
         <v>349</v>
       </c>
       <c r="B349" s="1"/>
-      <c r="C349" s="2"/>
+      <c r="C349" s="702" t="s">
+        <v>588</v>
+      </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
@@ -5097,7 +8154,9 @@
         <v>350</v>
       </c>
       <c r="B350" s="1"/>
-      <c r="C350" s="2"/>
+      <c r="C350" s="704" t="s">
+        <v>589</v>
+      </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
@@ -5106,7 +8165,9 @@
         <v>351</v>
       </c>
       <c r="B351" s="1"/>
-      <c r="C351" s="2"/>
+      <c r="C351" s="706" t="s">
+        <v>589</v>
+      </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
@@ -5115,7 +8176,9 @@
         <v>352</v>
       </c>
       <c r="B352" s="1"/>
-      <c r="C352" s="2"/>
+      <c r="C352" s="708" t="s">
+        <v>588</v>
+      </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
@@ -5124,7 +8187,9 @@
         <v>353</v>
       </c>
       <c r="B353" s="1"/>
-      <c r="C353" s="2"/>
+      <c r="C353" s="710" t="s">
+        <v>589</v>
+      </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
@@ -5133,7 +8198,9 @@
         <v>354</v>
       </c>
       <c r="B354" s="1"/>
-      <c r="C354" s="2"/>
+      <c r="C354" s="712" t="s">
+        <v>588</v>
+      </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
@@ -5142,7 +8209,9 @@
         <v>355</v>
       </c>
       <c r="B355" s="1"/>
-      <c r="C355" s="2"/>
+      <c r="C355" s="714" t="s">
+        <v>589</v>
+      </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
@@ -5151,7 +8220,9 @@
         <v>356</v>
       </c>
       <c r="B356" s="1"/>
-      <c r="C356" s="2"/>
+      <c r="C356" s="716" t="s">
+        <v>589</v>
+      </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
@@ -5160,7 +8231,9 @@
         <v>357</v>
       </c>
       <c r="B357" s="1"/>
-      <c r="C357" s="2"/>
+      <c r="C357" s="718" t="s">
+        <v>589</v>
+      </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
@@ -5169,7 +8242,9 @@
         <v>358</v>
       </c>
       <c r="B358" s="1"/>
-      <c r="C358" s="2"/>
+      <c r="C358" s="720" t="s">
+        <v>588</v>
+      </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
@@ -5178,7 +8253,9 @@
         <v>359</v>
       </c>
       <c r="B359" s="1"/>
-      <c r="C359" s="2"/>
+      <c r="C359" s="722" t="s">
+        <v>589</v>
+      </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
@@ -5187,7 +8264,9 @@
         <v>360</v>
       </c>
       <c r="B360" s="1"/>
-      <c r="C360" s="2"/>
+      <c r="C360" s="724" t="s">
+        <v>589</v>
+      </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
@@ -5196,7 +8275,9 @@
         <v>361</v>
       </c>
       <c r="B361" s="1"/>
-      <c r="C361" s="2"/>
+      <c r="C361" s="726" t="s">
+        <v>588</v>
+      </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
@@ -5205,7 +8286,9 @@
         <v>362</v>
       </c>
       <c r="B362" s="1"/>
-      <c r="C362" s="2"/>
+      <c r="C362" s="728" t="s">
+        <v>589</v>
+      </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
@@ -5214,7 +8297,9 @@
         <v>363</v>
       </c>
       <c r="B363" s="1"/>
-      <c r="C363" s="2"/>
+      <c r="C363" s="730" t="s">
+        <v>591</v>
+      </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
@@ -5223,7 +8308,9 @@
         <v>364</v>
       </c>
       <c r="B364" s="1"/>
-      <c r="C364" s="2"/>
+      <c r="C364" s="732" t="s">
+        <v>590</v>
+      </c>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
@@ -5232,7 +8319,9 @@
         <v>365</v>
       </c>
       <c r="B365" s="1"/>
-      <c r="C365" s="2"/>
+      <c r="C365" s="734" t="s">
+        <v>590</v>
+      </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
@@ -5241,7 +8330,9 @@
         <v>366</v>
       </c>
       <c r="B366" s="1"/>
-      <c r="C366" s="2"/>
+      <c r="C366" s="736" t="s">
+        <v>589</v>
+      </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
@@ -5250,7 +8341,9 @@
         <v>367</v>
       </c>
       <c r="B367" s="1"/>
-      <c r="C367" s="2"/>
+      <c r="C367" s="738" t="s">
+        <v>589</v>
+      </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
@@ -5259,7 +8352,9 @@
         <v>368</v>
       </c>
       <c r="B368" s="1"/>
-      <c r="C368" s="2"/>
+      <c r="C368" s="740" t="s">
+        <v>589</v>
+      </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
@@ -5268,7 +8363,9 @@
         <v>369</v>
       </c>
       <c r="B369" s="1"/>
-      <c r="C369" s="2"/>
+      <c r="C369" s="742" t="s">
+        <v>589</v>
+      </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
@@ -5277,7 +8374,9 @@
         <v>370</v>
       </c>
       <c r="B370" s="1"/>
-      <c r="C370" s="2"/>
+      <c r="C370" s="744" t="s">
+        <v>589</v>
+      </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
@@ -5285,1081 +8384,1729 @@
       <c r="A371" s="3" t="s">
         <v>371</v>
       </c>
+      <c r="C371" s="746" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
         <v>372</v>
       </c>
+      <c r="C372" s="748" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
         <v>373</v>
       </c>
+      <c r="C373" s="750" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
         <v>374</v>
       </c>
+      <c r="C374" s="752" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="C375" s="754" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
         <v>376</v>
       </c>
+      <c r="C376" s="756" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
         <v>377</v>
       </c>
+      <c r="C377" s="758" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
         <v>378</v>
       </c>
+      <c r="C378" s="760" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
         <v>379</v>
       </c>
+      <c r="C379" s="762" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
         <v>380</v>
       </c>
+      <c r="C380" s="764" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
         <v>381</v>
       </c>
+      <c r="C381" s="766" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
         <v>382</v>
       </c>
+      <c r="C382" s="768" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
         <v>383</v>
       </c>
+      <c r="C383" s="770" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
         <v>384</v>
       </c>
+      <c r="C384" s="772" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
         <v>385</v>
       </c>
+      <c r="C385" s="774" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
         <v>386</v>
       </c>
+      <c r="C386" s="776" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
         <v>387</v>
       </c>
+      <c r="C387" s="778" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
         <v>388</v>
       </c>
+      <c r="C388" s="780" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
         <v>389</v>
       </c>
+      <c r="C389" s="782" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
         <v>390</v>
       </c>
+      <c r="C390" s="784" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
         <v>391</v>
       </c>
+      <c r="C391" s="786" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C392" s="788" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
         <v>393</v>
       </c>
+      <c r="C393" s="790" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
         <v>394</v>
       </c>
+      <c r="C394" s="792" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
         <v>395</v>
       </c>
+      <c r="C395" s="794" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
         <v>396</v>
       </c>
+      <c r="C396" s="796" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
         <v>397</v>
       </c>
+      <c r="C397" s="798" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
         <v>398</v>
       </c>
+      <c r="C398" s="800" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
         <v>399</v>
       </c>
+      <c r="C399" s="802" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
         <v>400</v>
       </c>
+      <c r="C400" s="804" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
         <v>401</v>
       </c>
+      <c r="C401" s="806" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
         <v>402</v>
       </c>
+      <c r="C402" s="808" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
         <v>403</v>
       </c>
+      <c r="C403" s="810" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
         <v>404</v>
       </c>
+      <c r="C404" s="812" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
         <v>405</v>
       </c>
+      <c r="C405" s="814" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
         <v>406</v>
       </c>
+      <c r="C406" s="816" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
         <v>407</v>
       </c>
+      <c r="C407" s="818" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
         <v>408</v>
       </c>
+      <c r="C408" s="820" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
         <v>409</v>
       </c>
+      <c r="C409" s="822" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="s">
         <v>410</v>
       </c>
+      <c r="C410" s="824" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="s">
         <v>411</v>
       </c>
+      <c r="C411" s="826" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
         <v>412</v>
       </c>
+      <c r="C412" s="828" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
         <v>413</v>
       </c>
+      <c r="C413" s="830" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
         <v>414</v>
       </c>
+      <c r="C414" s="832" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
         <v>415</v>
       </c>
+      <c r="C415" s="834" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
         <v>416</v>
       </c>
+      <c r="C416" s="836" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
         <v>417</v>
       </c>
+      <c r="C417" s="838" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
         <v>418</v>
       </c>
+      <c r="C418" s="840" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
         <v>419</v>
       </c>
+      <c r="C419" s="842" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
         <v>420</v>
       </c>
+      <c r="C420" s="844" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="s">
         <v>421</v>
       </c>
+      <c r="C421" s="846" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="C422" s="848" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
         <v>423</v>
       </c>
+      <c r="C423" s="850" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
         <v>424</v>
       </c>
+      <c r="C424" s="852" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="C425" s="854" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
         <v>426</v>
       </c>
+      <c r="C426" s="856" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="s">
         <v>427</v>
       </c>
+      <c r="C427" s="858" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="s">
         <v>428</v>
       </c>
+      <c r="C428" s="860" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
         <v>429</v>
       </c>
+      <c r="C429" s="862" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="s">
         <v>430</v>
       </c>
+      <c r="C430" s="864" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
         <v>431</v>
       </c>
+      <c r="C431" s="866" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
         <v>432</v>
       </c>
+      <c r="C432" s="868" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="s">
         <v>433</v>
       </c>
+      <c r="C433" s="870" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="s">
         <v>434</v>
       </c>
+      <c r="C434" s="872" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="C435" s="874" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3" t="s">
         <v>436</v>
       </c>
+      <c r="C436" s="876" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="s">
         <v>437</v>
       </c>
+      <c r="C437" s="878" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3" t="s">
         <v>438</v>
       </c>
+      <c r="C438" s="880" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
         <v>439</v>
       </c>
+      <c r="C439" s="882" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
         <v>440</v>
       </c>
+      <c r="C440" s="884" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
         <v>441</v>
       </c>
+      <c r="C441" s="886" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
         <v>442</v>
       </c>
+      <c r="C442" s="888" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="s">
         <v>443</v>
       </c>
+      <c r="C443" s="890" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3" t="s">
         <v>444</v>
       </c>
+      <c r="C444" s="892" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3" t="s">
         <v>445</v>
       </c>
+      <c r="C445" s="894" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="C446" s="896" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="447" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3" t="s">
         <v>447</v>
       </c>
+      <c r="C447" s="898" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="448" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3" t="s">
         <v>448</v>
       </c>
+      <c r="C448" s="900" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="449" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3" t="s">
         <v>449</v>
       </c>
+      <c r="C449" s="902" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
         <v>450</v>
       </c>
+      <c r="C450" s="904" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="451" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="C451" s="906" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="s">
         <v>452</v>
       </c>
+      <c r="C452" s="908" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
         <v>453</v>
       </c>
+      <c r="C453" s="910" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3" t="s">
         <v>454</v>
       </c>
+      <c r="C454" s="912" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3" t="s">
         <v>455</v>
       </c>
+      <c r="C455" s="914" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="3" t="s">
         <v>456</v>
       </c>
+      <c r="C456" s="916" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="3" t="s">
         <v>457</v>
       </c>
+      <c r="C457" s="918" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="458" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3" t="s">
         <v>458</v>
       </c>
+      <c r="C458" s="920" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="459" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="3" t="s">
         <v>459</v>
       </c>
+      <c r="C459" s="922" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="460" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="3" t="s">
         <v>460</v>
       </c>
+      <c r="C460" s="924" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="461" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="C461" s="926" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="462" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3" t="s">
         <v>462</v>
       </c>
+      <c r="C462" s="928" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="463" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="3" t="s">
         <v>463</v>
       </c>
+      <c r="C463" s="930" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="464" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="3" t="s">
         <v>464</v>
       </c>
+      <c r="C464" s="932" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="465" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="3" t="s">
         <v>465</v>
       </c>
+      <c r="C465" s="934" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="466" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="3" t="s">
         <v>466</v>
       </c>
+      <c r="C466" s="936" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="467" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3" t="s">
         <v>467</v>
       </c>
+      <c r="C467" s="938" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="468" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3" t="s">
         <v>468</v>
       </c>
+      <c r="C468" s="940" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="469" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="3" t="s">
         <v>469</v>
       </c>
+      <c r="C469" s="942" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="470" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="3" t="s">
         <v>470</v>
       </c>
+      <c r="C470" s="944" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="471" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3" t="s">
         <v>471</v>
       </c>
+      <c r="C471" s="946" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="472" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="3" t="s">
         <v>472</v>
       </c>
+      <c r="C472" s="948" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="473" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="3" t="s">
         <v>473</v>
       </c>
+      <c r="C473" s="950" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="474" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="3" t="s">
         <v>474</v>
       </c>
+      <c r="C474" s="952" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="475" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="3" t="s">
         <v>475</v>
       </c>
+      <c r="C475" s="954" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="476" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="3" t="s">
         <v>476</v>
       </c>
+      <c r="C476" s="956" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="477" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3" t="s">
         <v>477</v>
       </c>
+      <c r="C477" s="958" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="478" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="3" t="s">
         <v>478</v>
       </c>
+      <c r="C478" s="960" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="479" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3" t="s">
         <v>479</v>
       </c>
+      <c r="C479" s="962" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="480" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3" t="s">
         <v>480</v>
       </c>
+      <c r="C480" s="964" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="481" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3" t="s">
         <v>481</v>
       </c>
+      <c r="C481" s="966" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="482" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3" t="s">
         <v>482</v>
       </c>
+      <c r="C482" s="968" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="483" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3" t="s">
         <v>483</v>
       </c>
+      <c r="C483" s="970" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="484" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3" t="s">
         <v>484</v>
       </c>
+      <c r="C484" s="972" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="485" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
         <v>485</v>
       </c>
+      <c r="C485" s="974" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="486" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3" t="s">
         <v>486</v>
       </c>
+      <c r="C486" s="976" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="487" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3" t="s">
         <v>487</v>
       </c>
+      <c r="C487" s="978" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="488" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="3" t="s">
         <v>488</v>
       </c>
+      <c r="C488" s="980" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="489" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="3" t="s">
         <v>489</v>
       </c>
+      <c r="C489" s="982" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="490" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="3" t="s">
         <v>490</v>
       </c>
+      <c r="C490" s="984" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="491" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="3" t="s">
         <v>491</v>
       </c>
+      <c r="C491" s="986" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="492" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="3" t="s">
         <v>492</v>
       </c>
+      <c r="C492" s="988" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="493" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="3" t="s">
         <v>493</v>
       </c>
+      <c r="C493" s="990" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3" t="s">
         <v>494</v>
       </c>
+      <c r="C494" s="992" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="495" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="3" t="s">
         <v>495</v>
       </c>
+      <c r="C495" s="994" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="C496" s="996" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="497" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="C497" s="998" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="498" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="3" t="s">
         <v>498</v>
       </c>
+      <c r="C498" s="1000" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="499" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="3" t="s">
         <v>499</v>
       </c>
+      <c r="C499" s="1002" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="500" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="3" t="s">
         <v>500</v>
       </c>
+      <c r="C500" s="1004" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="501" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3" t="s">
         <v>501</v>
       </c>
+      <c r="C501" s="1006" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="502" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="3" t="s">
         <v>502</v>
       </c>
+      <c r="C502" s="1008" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="503" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="s">
         <v>503</v>
       </c>
+      <c r="C503" s="1010" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="504" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="3" t="s">
         <v>504</v>
       </c>
+      <c r="C504" s="1012" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="505" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="3" t="s">
         <v>505</v>
       </c>
+      <c r="C505" s="1014" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="506" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="3" t="s">
         <v>506</v>
       </c>
+      <c r="C506" s="1016" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="507" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="3" t="s">
         <v>507</v>
       </c>
+      <c r="C507" s="1018" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="508" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="3" t="s">
         <v>508</v>
       </c>
+      <c r="C508" s="1020" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="509" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3" t="s">
         <v>509</v>
       </c>
+      <c r="C509" s="1022" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="510" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="3" t="s">
         <v>510</v>
       </c>
+      <c r="C510" s="1024" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="511" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="3" t="s">
         <v>511</v>
       </c>
+      <c r="C511" s="1026" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="3" t="s">
         <v>512</v>
       </c>
+      <c r="C512" s="1028" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="3" t="s">
         <v>513</v>
       </c>
+      <c r="C513" s="1030" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="3" t="s">
         <v>514</v>
       </c>
+      <c r="C514" s="1032" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="3" t="s">
         <v>515</v>
       </c>
+      <c r="C515" s="1034" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="516" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="3" t="s">
         <v>516</v>
       </c>
+      <c r="C516" s="1036" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3" t="s">
         <v>517</v>
       </c>
+      <c r="C517" s="1038" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="518" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="3" t="s">
         <v>518</v>
       </c>
+      <c r="C518" s="1040" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="519" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="s">
         <v>519</v>
       </c>
+      <c r="C519" s="1042" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="520" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="3" t="s">
         <v>520</v>
       </c>
+      <c r="C520" s="1044" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="521" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="3" t="s">
         <v>521</v>
       </c>
+      <c r="C521" s="1046" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="522" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="3" t="s">
         <v>522</v>
       </c>
+      <c r="C522" s="1048" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="523" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="3" t="s">
         <v>523</v>
       </c>
+      <c r="C523" s="1050" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="524" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="3" t="s">
         <v>524</v>
       </c>
+      <c r="C524" s="1052" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="525" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3" t="s">
         <v>525</v>
       </c>
+      <c r="C525" s="1054" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="526" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="3" t="s">
         <v>526</v>
       </c>
+      <c r="C526" s="1056" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="527" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="3" t="s">
         <v>527</v>
       </c>
+      <c r="C527" s="1058" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="528" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="3" t="s">
         <v>528</v>
       </c>
+      <c r="C528" s="1060" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="529" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="3" t="s">
         <v>529</v>
       </c>
+      <c r="C529" s="1062" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="530" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3" t="s">
         <v>530</v>
       </c>
+      <c r="C530" s="1064" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="531" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3" t="s">
         <v>531</v>
       </c>
+      <c r="C531" s="1066" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3" t="s">
         <v>532</v>
       </c>
+      <c r="C532" s="1068" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="533" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3" t="s">
         <v>533</v>
       </c>
+      <c r="C533" s="1070" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="534" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="3" t="s">
         <v>534</v>
       </c>
+      <c r="C534" s="1072" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="535" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3" t="s">
         <v>535</v>
       </c>
+      <c r="C535" s="1074" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="536" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="s">
         <v>536</v>
       </c>
+      <c r="C536" s="1076" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="537" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3" t="s">
         <v>537</v>
       </c>
+      <c r="C537" s="1078" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="538" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3" t="s">
         <v>538</v>
       </c>
+      <c r="C538" s="1080" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="539" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3" t="s">
         <v>539</v>
       </c>
+      <c r="C539" s="1082" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="540" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="s">
         <v>540</v>
       </c>
+      <c r="C540" s="1084" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="541" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
         <v>541</v>
       </c>
+      <c r="C541" s="1086" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="542" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3" t="s">
         <v>542</v>
       </c>
+      <c r="C542" s="1088" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="543" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3" t="s">
         <v>543</v>
       </c>
+      <c r="C543" s="1090" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="544" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3" t="s">
         <v>544</v>
       </c>
+      <c r="C544" s="1092" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="545" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3" t="s">
         <v>545</v>
       </c>
+      <c r="C545" s="1094" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="546" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="s">
         <v>546</v>
       </c>
+      <c r="C546" s="1096" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="547" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3" t="s">
         <v>547</v>
       </c>
+      <c r="C547" s="1098" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3" t="s">
         <v>548</v>
       </c>
+      <c r="C548" s="1100" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="549" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="3" t="s">
         <v>549</v>
       </c>
+      <c r="C549" s="1102" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="550" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3" t="s">
         <v>550</v>
       </c>
+      <c r="C550" s="1104" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="551" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3" t="s">
         <v>551</v>
       </c>
+      <c r="C551" s="1106" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="552" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3" t="s">
         <v>552</v>
       </c>
+      <c r="C552" s="1108" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="553" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3" t="s">
         <v>553</v>
       </c>
+      <c r="C553" s="1110" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3" t="s">
         <v>554</v>
       </c>
+      <c r="C554" s="1112" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="555" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="s">
         <v>555</v>
       </c>
+      <c r="C555" s="1114" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="556" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="s">
         <v>556</v>
       </c>
+      <c r="C556" s="1116" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="557" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3" t="s">
         <v>557</v>
       </c>
+      <c r="C557" s="1118" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="558" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3" t="s">
         <v>558</v>
       </c>
+      <c r="C558" s="1120" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3" t="s">
         <v>559</v>
       </c>
+      <c r="C559" s="1122" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="560" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3" t="s">
         <v>560</v>
       </c>
+      <c r="C560" s="1124" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="561" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3" t="s">
         <v>561</v>
       </c>
+      <c r="C561" s="1126" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="562" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3" t="s">
         <v>562</v>
       </c>
+      <c r="C562" s="1128" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="563" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3" t="s">
         <v>563</v>
       </c>
+      <c r="C563" s="1130" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="564" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3" t="s">
         <v>564</v>
       </c>
+      <c r="C564" s="1132" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="565" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3" t="s">
         <v>565</v>
       </c>
+      <c r="C565" s="1134" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="566" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="3" t="s">
         <v>566</v>
       </c>
+      <c r="C566" s="1136" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="567" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="3" t="s">
         <v>567</v>
       </c>
+      <c r="C567" s="1138" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="568" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3" t="s">
         <v>568</v>
       </c>
+      <c r="C568" s="1140" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="569" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="3" t="s">
         <v>569</v>
       </c>
+      <c r="C569" s="1142" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="570" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="3" t="s">
         <v>570</v>
       </c>
+      <c r="C570" s="1144" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="571" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="3" t="s">
         <v>571</v>
       </c>
+      <c r="C571" s="1146" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="572" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3" t="s">
         <v>572</v>
       </c>
+      <c r="C572" s="1148" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="573" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="3" t="s">
         <v>573</v>
       </c>
+      <c r="C573" s="1150" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="574" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="3" t="s">
         <v>574</v>
       </c>
+      <c r="C574" s="1152" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="575" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3" t="s">
         <v>575</v>
       </c>
+      <c r="C575" s="1154" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="576" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3" t="s">
         <v>576</v>
       </c>
+      <c r="C576" s="1156" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="577" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="3" t="s">
         <v>577</v>
       </c>
+      <c r="C577" s="1158" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="578" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="3" t="s">
         <v>578</v>
       </c>
+      <c r="C578" s="1160" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="579" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="3" t="s">
         <v>579</v>
       </c>
+      <c r="C579" s="1162" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="580" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="3" t="s">
         <v>580</v>
       </c>
+      <c r="C580" s="1164" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="581" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="3" t="s">
         <v>581</v>
       </c>
+      <c r="C581" s="1166" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="582" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="3" t="s">
         <v>582</v>
       </c>
+      <c r="C582" s="1168" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="583" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="3" t="s">
         <v>583</v>
       </c>
+      <c r="C583" s="1170" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="584" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3" t="s">
         <v>584</v>
       </c>
+      <c r="C584" s="1172" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="585" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="3" t="s">
         <v>585</v>
       </c>
+      <c r="C585" s="1174" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="586" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="3" t="s">
         <v>586</v>
       </c>
+      <c r="C586" s="1176" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="5"/>
@@ -7607,10 +11354,10 @@
       <c r="A1001" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555" footer="0.51180555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/tools/labels.xlsx
+++ b/tools/labels.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="592">
   <si>
     <t xml:space="preserve">images</t>
   </si>
@@ -1838,7 +1838,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1173">
+  <borders count="1185">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1846,6 +1846,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border/>
     <border/>
     <border/>
@@ -3048,7 +3060,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1178">
+  <cellXfs count="1190">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4245,6 +4257,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1184" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4302,8 +4326,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="8" t="s">
-        <v>588</v>
+      <c r="C2" s="1178" t="s">
+        <v>589</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4362,8 +4386,8 @@
         <v>6</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="16" t="s">
-        <v>590</v>
+      <c r="C6" s="1180" t="s">
+        <v>589</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4480,8 +4504,8 @@
         <v>16</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="36" t="s">
-        <v>589</v>
+      <c r="C16" s="1182" t="s">
+        <v>588</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4502,8 +4526,8 @@
         <v>18</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="40" t="s">
-        <v>589</v>
+      <c r="C18" s="1184" t="s">
+        <v>588</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5085,8 +5109,8 @@
         <v>71</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="146" t="s">
-        <v>591</v>
+      <c r="C71" s="1186" t="s">
+        <v>589</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5129,8 +5153,8 @@
         <v>75</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="154" t="s">
-        <v>589</v>
+      <c r="C75" s="1188" t="s">
+        <v>588</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
